--- a/FXLeibility.Matlab/Experiment/CostReduction/Figure (Autosaved).xlsx
+++ b/FXLeibility.Matlab/Experiment/CostReduction/Figure (Autosaved).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Germany_ESS" sheetId="3" r:id="rId1"/>
@@ -340,7 +340,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -448,7 +447,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -556,7 +554,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -611,8 +608,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1145543488"/>
-        <c:axId val="1145545808"/>
+        <c:axId val="1187488960"/>
+        <c:axId val="1187491280"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -689,7 +686,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -743,11 +739,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1145673584"/>
-        <c:axId val="1145548128"/>
+        <c:axId val="1187225200"/>
+        <c:axId val="1187493600"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1145543488"/>
+        <c:axId val="1187488960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -756,7 +752,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1145545808"/>
+        <c:crossAx val="1187491280"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -764,7 +760,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1145545808"/>
+        <c:axId val="1187491280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -805,12 +801,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145543488"/>
+        <c:crossAx val="1187488960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1145548128"/>
+        <c:axId val="1187493600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -850,12 +846,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145673584"/>
+        <c:crossAx val="1187225200"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1145673584"/>
+        <c:axId val="1187225200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +860,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1145548128"/>
+        <c:crossAx val="1187493600"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -883,7 +879,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1333,8 +1328,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187070352"/>
-        <c:axId val="1187293840"/>
+        <c:axId val="1145932704"/>
+        <c:axId val="1145415456"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -1477,11 +1472,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1450323024"/>
-        <c:axId val="1187296960"/>
+        <c:axId val="1185696144"/>
+        <c:axId val="1423859824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187070352"/>
+        <c:axId val="1145932704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1518,7 +1513,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187293840"/>
+        <c:crossAx val="1145415456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1526,7 +1521,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187293840"/>
+        <c:axId val="1145415456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1619,13 +1614,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187070352"/>
+        <c:crossAx val="1145932704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187296960"/>
+        <c:axId val="1423859824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -1720,13 +1715,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450323024"/>
+        <c:crossAx val="1185696144"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1450323024"/>
+        <c:axId val="1185696144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1736,7 +1731,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187296960"/>
+        <c:crossAx val="1423859824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2180,8 +2175,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162801328"/>
-        <c:axId val="1162803648"/>
+        <c:axId val="1187356864"/>
+        <c:axId val="1187359184"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -2324,11 +2319,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162810944"/>
-        <c:axId val="1162807040"/>
+        <c:axId val="1187583856"/>
+        <c:axId val="1187362576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162801328"/>
+        <c:axId val="1187356864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2365,7 +2360,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162803648"/>
+        <c:crossAx val="1187359184"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2373,7 +2368,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162803648"/>
+        <c:axId val="1187359184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="30.0"/>
@@ -2467,13 +2462,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162801328"/>
+        <c:crossAx val="1187356864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="10.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162807040"/>
+        <c:axId val="1187362576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="70.0"/>
@@ -2568,13 +2563,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162810944"/>
+        <c:crossAx val="1187583856"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162810944"/>
+        <c:axId val="1187583856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2584,7 +2579,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162807040"/>
+        <c:crossAx val="1187362576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2752,7 +2747,7 @@
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201335E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.0347222222222222"/>
                 </c:manualLayout>
               </c:layout>
@@ -3140,8 +3135,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1184926560"/>
-        <c:axId val="1185544288"/>
+        <c:axId val="1162384496"/>
+        <c:axId val="1162386816"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -3231,11 +3226,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1450380288"/>
-        <c:axId val="1162821456"/>
+        <c:axId val="1162393600"/>
+        <c:axId val="1162390208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1184926560"/>
+        <c:axId val="1162384496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3272,7 +3267,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185544288"/>
+        <c:crossAx val="1162386816"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3280,7 +3275,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185544288"/>
+        <c:axId val="1162386816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.2"/>
@@ -3374,16 +3369,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1184926560"/>
+        <c:crossAx val="1162384496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162821456"/>
+        <c:axId val="1162390208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
-          <c:min val="-1.8"/>
+          <c:min val="-0.9"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -3474,13 +3469,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450380288"/>
+        <c:crossAx val="1162393600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
-        <c:majorUnit val="2.8"/>
+        <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1450380288"/>
+        <c:axId val="1162393600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3490,7 +3485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162821456"/>
+        <c:crossAx val="1162390208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3841,11 +3836,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162839152"/>
-        <c:axId val="1162841984"/>
+        <c:axId val="1187127872"/>
+        <c:axId val="1187130432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162839152"/>
+        <c:axId val="1187127872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3885,7 +3880,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162841984"/>
+        <c:crossAx val="1187130432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3893,7 +3888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162841984"/>
+        <c:axId val="1187130432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3941,7 +3936,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162839152"/>
+        <c:crossAx val="1187127872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4536,11 +4531,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162649312"/>
-        <c:axId val="1162651632"/>
+        <c:axId val="1185174224"/>
+        <c:axId val="1185176544"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162649312"/>
+        <c:axId val="1185174224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4580,7 +4575,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162651632"/>
+        <c:crossAx val="1185176544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4588,7 +4583,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162651632"/>
+        <c:axId val="1185176544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -4673,7 +4668,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162649312"/>
+        <c:crossAx val="1185174224"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5242,11 +5237,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162681040"/>
-        <c:axId val="1162683360"/>
+        <c:axId val="1185025920"/>
+        <c:axId val="1185028240"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162681040"/>
+        <c:axId val="1185025920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5286,7 +5281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162683360"/>
+        <c:crossAx val="1185028240"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5294,7 +5289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162683360"/>
+        <c:axId val="1185028240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -5380,7 +5375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162681040"/>
+        <c:crossAx val="1185025920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30.0"/>
@@ -5950,11 +5945,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1450285808"/>
-        <c:axId val="1450288128"/>
+        <c:axId val="1187926864"/>
+        <c:axId val="1187247712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1450285808"/>
+        <c:axId val="1187926864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5994,7 +5989,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450288128"/>
+        <c:crossAx val="1187247712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6002,7 +5997,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1450288128"/>
+        <c:axId val="1187247712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -6088,7 +6083,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1450285808"/>
+        <c:crossAx val="1187926864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
@@ -6227,7 +6222,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6338,7 +6332,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6449,7 +6442,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6507,8 +6499,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162740832"/>
-        <c:axId val="1162743152"/>
+        <c:axId val="1187450736"/>
+        <c:axId val="1187453056"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -6585,7 +6577,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6642,11 +6633,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1162747792"/>
-        <c:axId val="1162745472"/>
+        <c:axId val="1187832912"/>
+        <c:axId val="1187455376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162740832"/>
+        <c:axId val="1187450736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6655,7 +6646,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162743152"/>
+        <c:crossAx val="1187453056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6663,7 +6654,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162743152"/>
+        <c:axId val="1187453056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -6704,12 +6695,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162740832"/>
+        <c:crossAx val="1187450736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162745472"/>
+        <c:axId val="1187455376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -6749,12 +6740,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162747792"/>
+        <c:crossAx val="1187832912"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162747792"/>
+        <c:axId val="1187832912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6763,7 +6754,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162745472"/>
+        <c:crossAx val="1187455376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -6782,7 +6773,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6913,7 +6903,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7016,9 +7005,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -7055,7 +7042,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7216,7 +7202,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7300,8 +7285,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162725616"/>
-        <c:axId val="1162753792"/>
+        <c:axId val="1184959216"/>
+        <c:axId val="1184961536"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -7397,11 +7382,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1185551984"/>
-        <c:axId val="1185477456"/>
+        <c:axId val="1185065488"/>
+        <c:axId val="1185061584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162725616"/>
+        <c:axId val="1184959216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7441,7 +7426,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162753792"/>
+        <c:crossAx val="1184961536"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7449,7 +7434,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162753792"/>
+        <c:axId val="1184961536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -7480,7 +7465,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7536,13 +7520,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162725616"/>
+        <c:crossAx val="1184959216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1185477456"/>
+        <c:axId val="1185061584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="80000.0"/>
@@ -7573,7 +7557,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -7630,13 +7613,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185551984"/>
+        <c:crossAx val="1185065488"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1185551984"/>
+        <c:axId val="1185065488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -7646,7 +7629,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185477456"/>
+        <c:crossAx val="1185061584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -7787,7 +7770,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -7924,7 +7906,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8062,7 +8043,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8146,8 +8126,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185495904"/>
-        <c:axId val="1162768592"/>
+        <c:axId val="1185458384"/>
+        <c:axId val="1185460704"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8254,11 +8234,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162772960"/>
-        <c:axId val="1162770640"/>
+        <c:axId val="1185483360"/>
+        <c:axId val="1185419120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185495904"/>
+        <c:axId val="1185458384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8301,7 +8281,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162768592"/>
+        <c:crossAx val="1185460704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8309,7 +8289,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162768592"/>
+        <c:axId val="1185460704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -8348,12 +8328,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185495904"/>
+        <c:crossAx val="1185458384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162770640"/>
+        <c:axId val="1185419120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -8393,13 +8373,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162772960"/>
+        <c:crossAx val="1185483360"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162772960"/>
+        <c:axId val="1185483360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -8409,7 +8389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162770640"/>
+        <c:crossAx val="1185419120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -8428,7 +8408,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8554,7 +8533,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8651,9 +8629,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -8690,7 +8666,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8810,7 +8785,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -8888,8 +8862,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1146025296"/>
-        <c:axId val="1146027616"/>
+        <c:axId val="1423911264"/>
+        <c:axId val="1423913312"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -8979,11 +8953,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1145713264"/>
-        <c:axId val="1146050496"/>
+        <c:axId val="1423920096"/>
+        <c:axId val="1423916704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1146025296"/>
+        <c:axId val="1423911264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9023,7 +8997,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146027616"/>
+        <c:crossAx val="1423913312"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9031,7 +9005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1146027616"/>
+        <c:axId val="1423913312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -9061,7 +9035,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9117,13 +9090,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1146025296"/>
+        <c:crossAx val="1423911264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="100.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1146050496"/>
+        <c:axId val="1423916704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -9153,7 +9126,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9210,13 +9182,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145713264"/>
+        <c:crossAx val="1423920096"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1145713264"/>
+        <c:axId val="1423920096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -9226,7 +9198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1146050496"/>
+        <c:crossAx val="1423916704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -9371,9 +9343,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -9420,9 +9390,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:spPr>
@@ -9459,7 +9427,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9656,7 +9623,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9778,7 +9744,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -9862,8 +9827,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1145370768"/>
-        <c:axId val="1145373088"/>
+        <c:axId val="1185574672"/>
+        <c:axId val="1185576992"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -9935,7 +9900,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10019,11 +9983,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1145656384"/>
-        <c:axId val="1145652992"/>
+        <c:axId val="1382080800"/>
+        <c:axId val="1185132192"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1145370768"/>
+        <c:axId val="1185574672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10060,7 +10024,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145373088"/>
+        <c:crossAx val="1185576992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10068,7 +10032,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1145373088"/>
+        <c:axId val="1185576992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10161,13 +10125,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145370768"/>
+        <c:crossAx val="1185574672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1145652992"/>
+        <c:axId val="1185132192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -10261,12 +10225,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1145656384"/>
+        <c:crossAx val="1382080800"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1145656384"/>
+        <c:axId val="1382080800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10276,7 +10240,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1145652992"/>
+        <c:crossAx val="1185132192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10487,7 +10451,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10684,7 +10647,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10806,7 +10768,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -10890,8 +10851,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162609136"/>
-        <c:axId val="1162611456"/>
+        <c:axId val="1185152208"/>
+        <c:axId val="1185559264"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -10956,7 +10917,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11040,11 +11000,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162415296"/>
-        <c:axId val="1162615360"/>
+        <c:axId val="1382949936"/>
+        <c:axId val="1382777376"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162609136"/>
+        <c:axId val="1185152208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11081,7 +11041,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162611456"/>
+        <c:crossAx val="1185559264"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11089,7 +11049,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162611456"/>
+        <c:axId val="1185559264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -11183,13 +11143,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162609136"/>
+        <c:crossAx val="1185152208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162615360"/>
+        <c:axId val="1382777376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -11284,12 +11244,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162415296"/>
+        <c:crossAx val="1382949936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162415296"/>
+        <c:axId val="1382949936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -11299,7 +11259,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162615360"/>
+        <c:crossAx val="1382777376"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -11416,16 +11376,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="3"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201335E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.104166666666667"/>
                 </c:manualLayout>
               </c:layout>
@@ -11437,9 +11395,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -11477,7 +11433,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11642,7 +11597,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11803,7 +11757,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -11887,8 +11840,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162167632"/>
-        <c:axId val="1162169952"/>
+        <c:axId val="1161940064"/>
+        <c:axId val="1162554544"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -11984,11 +11937,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162179824"/>
-        <c:axId val="1162175920"/>
+        <c:axId val="1162152336"/>
+        <c:axId val="1162148432"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162167632"/>
+        <c:axId val="1161940064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12025,7 +11978,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162169952"/>
+        <c:crossAx val="1162554544"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12033,7 +11986,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162169952"/>
+        <c:axId val="1162554544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -12128,13 +12081,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162167632"/>
+        <c:crossAx val="1161940064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162175920"/>
+        <c:axId val="1162148432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -12229,13 +12182,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162179824"/>
+        <c:crossAx val="1162152336"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162179824"/>
+        <c:axId val="1162152336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12245,7 +12198,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162175920"/>
+        <c:crossAx val="1162148432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12617,8 +12570,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185069200"/>
-        <c:axId val="1185071520"/>
+        <c:axId val="1187805872"/>
+        <c:axId val="1187808192"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -12684,11 +12637,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1185872448"/>
-        <c:axId val="1185074912"/>
+        <c:axId val="1187254816"/>
+        <c:axId val="1187811584"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185069200"/>
+        <c:axId val="1187805872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12728,7 +12681,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185071520"/>
+        <c:crossAx val="1187808192"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -12736,7 +12689,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185071520"/>
+        <c:axId val="1187808192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-1000.0"/>
@@ -12822,13 +12775,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185069200"/>
+        <c:crossAx val="1187805872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1000.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1185074912"/>
+        <c:axId val="1187811584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90000.0"/>
@@ -12916,13 +12869,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185872448"/>
+        <c:crossAx val="1187254816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1185872448"/>
+        <c:axId val="1187254816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -12932,7 +12885,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185074912"/>
+        <c:crossAx val="1187811584"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13073,7 +13026,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13180,7 +13132,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13341,8 +13292,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185360304"/>
-        <c:axId val="1185362352"/>
+        <c:axId val="1382992016"/>
+        <c:axId val="1382994336"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -13419,11 +13370,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1185366992"/>
-        <c:axId val="1185364672"/>
+        <c:axId val="1382998976"/>
+        <c:axId val="1382996656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185360304"/>
+        <c:axId val="1382992016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13466,7 +13417,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185362352"/>
+        <c:crossAx val="1382994336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13474,7 +13425,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185362352"/>
+        <c:axId val="1382994336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -13513,12 +13464,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185360304"/>
+        <c:crossAx val="1382992016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1185364672"/>
+        <c:axId val="1382996656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -13558,13 +13509,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185366992"/>
+        <c:crossAx val="1382998976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1185366992"/>
+        <c:axId val="1382998976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -13574,7 +13525,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185364672"/>
+        <c:crossAx val="1382996656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -13593,7 +13544,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -13830,7 +13780,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13926,7 +13875,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -13969,8 +13917,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162334928"/>
-        <c:axId val="1162337248"/>
+        <c:axId val="1185186336"/>
+        <c:axId val="1185188656"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14047,7 +13995,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -14089,11 +14036,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1162341888"/>
-        <c:axId val="1162339568"/>
+        <c:axId val="1382848832"/>
+        <c:axId val="1382846512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162334928"/>
+        <c:axId val="1185186336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14102,7 +14049,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162337248"/>
+        <c:crossAx val="1185188656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14110,7 +14057,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162337248"/>
+        <c:axId val="1185188656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -14151,12 +14098,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162334928"/>
+        <c:crossAx val="1185186336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162339568"/>
+        <c:axId val="1382846512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -14164,6 +14111,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -14196,12 +14144,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162341888"/>
+        <c:crossAx val="1382848832"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162341888"/>
+        <c:axId val="1382848832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14210,7 +14158,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162339568"/>
+        <c:crossAx val="1382846512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14229,7 +14177,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14612,8 +14559,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185386560"/>
-        <c:axId val="1185285296"/>
+        <c:axId val="1382831152"/>
+        <c:axId val="1382817168"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -14732,11 +14679,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1185618000"/>
-        <c:axId val="1185288688"/>
+        <c:axId val="1185168816"/>
+        <c:axId val="1382820288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185386560"/>
+        <c:axId val="1382831152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14773,7 +14720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185285296"/>
+        <c:crossAx val="1382817168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -14781,7 +14728,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185285296"/>
+        <c:axId val="1382817168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14874,13 +14821,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185386560"/>
+        <c:crossAx val="1382831152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1185288688"/>
+        <c:axId val="1382820288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -14974,12 +14921,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185618000"/>
+        <c:crossAx val="1185168816"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1185618000"/>
+        <c:axId val="1185168816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -14989,7 +14936,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185288688"/>
+        <c:crossAx val="1382820288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15361,8 +15308,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187254464"/>
-        <c:axId val="1187365664"/>
+        <c:axId val="1184994592"/>
+        <c:axId val="1184996912"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -15481,11 +15428,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1187372688"/>
-        <c:axId val="1187368784"/>
+        <c:axId val="1185505952"/>
+        <c:axId val="1185116016"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187254464"/>
+        <c:axId val="1184994592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15522,7 +15469,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187365664"/>
+        <c:crossAx val="1184996912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -15530,7 +15477,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187365664"/>
+        <c:axId val="1184996912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60.0"/>
@@ -15624,13 +15571,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187254464"/>
+        <c:crossAx val="1184994592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="20.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187368784"/>
+        <c:axId val="1185116016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="200.0"/>
@@ -15725,12 +15672,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187372688"/>
+        <c:crossAx val="1185505952"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1187372688"/>
+        <c:axId val="1185505952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -15740,7 +15687,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187368784"/>
+        <c:crossAx val="1185116016"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16160,8 +16107,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187451408"/>
-        <c:axId val="1187453728"/>
+        <c:axId val="1185082528"/>
+        <c:axId val="1185567104"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -16227,11 +16174,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1187474784"/>
-        <c:axId val="1187457120"/>
+        <c:axId val="1637825456"/>
+        <c:axId val="1636862576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187451408"/>
+        <c:axId val="1185082528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16268,7 +16215,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187453728"/>
+        <c:crossAx val="1185567104"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16276,7 +16223,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187453728"/>
+        <c:axId val="1185567104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -16371,13 +16318,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187451408"/>
+        <c:crossAx val="1185082528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187457120"/>
+        <c:axId val="1636862576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -16472,13 +16419,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187474784"/>
+        <c:crossAx val="1637825456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1187474784"/>
+        <c:axId val="1637825456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16488,7 +16435,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187457120"/>
+        <c:crossAx val="1636862576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16839,11 +16786,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187184160"/>
-        <c:axId val="1187186720"/>
+        <c:axId val="1637817104"/>
+        <c:axId val="1637819936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187184160"/>
+        <c:axId val="1637817104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16883,7 +16830,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187186720"/>
+        <c:crossAx val="1637819936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -16891,7 +16838,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187186720"/>
+        <c:axId val="1637819936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -16938,7 +16885,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187184160"/>
+        <c:crossAx val="1637817104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -17102,7 +17049,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17233,7 +17179,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17365,7 +17310,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -17443,8 +17387,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1382832816"/>
-        <c:axId val="1382835440"/>
+        <c:axId val="1187763712"/>
+        <c:axId val="1187766032"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -17545,11 +17489,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1382840080"/>
-        <c:axId val="1382837760"/>
+        <c:axId val="1381822944"/>
+        <c:axId val="1381869344"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1382832816"/>
+        <c:axId val="1187763712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17592,7 +17536,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382835440"/>
+        <c:crossAx val="1187766032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17600,7 +17544,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382835440"/>
+        <c:axId val="1187766032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -17639,12 +17583,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382832816"/>
+        <c:crossAx val="1187763712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1382837760"/>
+        <c:axId val="1381869344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -17684,13 +17628,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382840080"/>
+        <c:crossAx val="1381822944"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1382840080"/>
+        <c:axId val="1381822944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -17700,7 +17644,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1382837760"/>
+        <c:crossAx val="1381869344"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -17719,7 +17663,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -18330,11 +18273,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187357504"/>
-        <c:axId val="1187359824"/>
+        <c:axId val="1450202096"/>
+        <c:axId val="1450204416"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187357504"/>
+        <c:axId val="1450202096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -18374,7 +18317,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187359824"/>
+        <c:crossAx val="1450204416"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -18382,7 +18325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187359824"/>
+        <c:axId val="1450204416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-20.0"/>
@@ -18467,7 +18410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187357504"/>
+        <c:crossAx val="1450202096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -19036,11 +18979,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187118304"/>
-        <c:axId val="1187120352"/>
+        <c:axId val="1637735360"/>
+        <c:axId val="1637737680"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187118304"/>
+        <c:axId val="1637735360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19080,7 +19023,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187120352"/>
+        <c:crossAx val="1637737680"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19088,7 +19031,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187120352"/>
+        <c:axId val="1637737680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="120.0"/>
@@ -19174,7 +19117,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187118304"/>
+        <c:crossAx val="1637735360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30.0"/>
@@ -19744,11 +19687,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187424432"/>
-        <c:axId val="1187426752"/>
+        <c:axId val="1637772512"/>
+        <c:axId val="1637774832"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187424432"/>
+        <c:axId val="1637772512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -19788,7 +19731,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187426752"/>
+        <c:crossAx val="1637774832"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -19796,7 +19739,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187426752"/>
+        <c:axId val="1637774832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="500.0"/>
@@ -19882,7 +19825,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187424432"/>
+        <c:crossAx val="1637772512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
@@ -20159,11 +20102,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1381938272"/>
-        <c:axId val="1381940560"/>
+        <c:axId val="1637614928"/>
+        <c:axId val="1637617760"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1381938272"/>
+        <c:axId val="1637614928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20203,7 +20146,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381940560"/>
+        <c:crossAx val="1637617760"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20211,7 +20154,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1381940560"/>
+        <c:axId val="1637617760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20258,7 +20201,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381938272"/>
+        <c:crossAx val="1637614928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -20272,7 +20215,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20420,7 +20362,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20524,7 +20465,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20628,7 +20568,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20732,7 +20671,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -20786,11 +20724,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187759552"/>
-        <c:axId val="1187761872"/>
+        <c:axId val="1145659376"/>
+        <c:axId val="1145634944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187759552"/>
+        <c:axId val="1145659376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -20830,7 +20768,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187761872"/>
+        <c:crossAx val="1145634944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -20838,7 +20776,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187761872"/>
+        <c:axId val="1145634944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4.0"/>
@@ -20868,7 +20806,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -20924,7 +20861,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187759552"/>
+        <c:crossAx val="1145659376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.0"/>
@@ -21060,7 +20997,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21164,7 +21100,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21268,7 +21203,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21372,7 +21306,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21426,11 +21359,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1381843008"/>
-        <c:axId val="1381887392"/>
+        <c:axId val="1637649744"/>
+        <c:axId val="1637652064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1381843008"/>
+        <c:axId val="1637649744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21470,7 +21403,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381887392"/>
+        <c:crossAx val="1637652064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -21478,7 +21411,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1381887392"/>
+        <c:axId val="1637652064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -21507,7 +21440,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -21563,7 +21495,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1381843008"/>
+        <c:crossAx val="1637649744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -21698,7 +21630,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21802,7 +21733,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -21906,7 +21836,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22010,7 +21939,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22064,11 +21992,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187783472"/>
-        <c:axId val="1187785792"/>
+        <c:axId val="1450587776"/>
+        <c:axId val="1450590096"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187783472"/>
+        <c:axId val="1450587776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22108,7 +22036,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187785792"/>
+        <c:crossAx val="1450590096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22116,7 +22044,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187785792"/>
+        <c:axId val="1450590096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="100.0"/>
@@ -22147,7 +22075,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -22203,7 +22130,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187783472"/>
+        <c:crossAx val="1450587776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="25.0"/>
@@ -22376,7 +22303,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22529,7 +22455,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22645,7 +22570,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22723,8 +22647,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162260608"/>
-        <c:axId val="1382810032"/>
+        <c:axId val="1423866192"/>
+        <c:axId val="1423868512"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -22789,7 +22713,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -22867,11 +22790,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162310496"/>
-        <c:axId val="1162262928"/>
+        <c:axId val="1423875808"/>
+        <c:axId val="1423871904"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162260608"/>
+        <c:axId val="1423866192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -22908,7 +22831,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382810032"/>
+        <c:crossAx val="1423868512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -22916,7 +22839,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382810032"/>
+        <c:axId val="1423868512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23009,12 +22932,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162260608"/>
+        <c:crossAx val="1423866192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162262928"/>
+        <c:axId val="1423871904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -23108,12 +23031,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162310496"/>
+        <c:crossAx val="1423875808"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162310496"/>
+        <c:axId val="1423875808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23123,7 +23046,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162262928"/>
+        <c:crossAx val="1423871904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23258,7 +23181,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23373,7 +23295,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23489,7 +23410,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23567,8 +23487,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1382975616"/>
-        <c:axId val="1382977936"/>
+        <c:axId val="1187769712"/>
+        <c:axId val="1187772032"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -23633,7 +23553,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -23711,11 +23630,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1382985232"/>
-        <c:axId val="1382981328"/>
+        <c:axId val="1187779328"/>
+        <c:axId val="1187775424"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1382975616"/>
+        <c:axId val="1187769712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23752,7 +23671,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382977936"/>
+        <c:crossAx val="1187772032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -23760,7 +23679,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1382977936"/>
+        <c:axId val="1187772032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23853,12 +23772,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382975616"/>
+        <c:crossAx val="1187769712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1382981328"/>
+        <c:axId val="1187775424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -23952,12 +23871,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1382985232"/>
+        <c:crossAx val="1187779328"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1382985232"/>
+        <c:axId val="1187779328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -23967,7 +23886,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1382981328"/>
+        <c:crossAx val="1187775424"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24084,9 +24003,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -24105,9 +24022,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
@@ -24155,16 +24070,14 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201335E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="-0.0625"/>
                 </c:manualLayout>
               </c:layout>
@@ -24176,9 +24089,7 @@
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:layout/>
-                </c:ext>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
               </c:extLst>
             </c:dLbl>
             <c:numFmt formatCode="#,##0.00" sourceLinked="0"/>
@@ -24216,7 +24127,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -24416,7 +24326,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -24536,7 +24445,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -24614,8 +24522,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1185734832"/>
-        <c:axId val="1185736880"/>
+        <c:axId val="1423898464"/>
+        <c:axId val="1423900784"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -24705,11 +24613,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1185467264"/>
-        <c:axId val="1185463360"/>
+        <c:axId val="1423229904"/>
+        <c:axId val="1423904176"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1185734832"/>
+        <c:axId val="1423898464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24746,7 +24654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185736880"/>
+        <c:crossAx val="1423900784"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -24754,7 +24662,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1185736880"/>
+        <c:axId val="1423900784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.4"/>
@@ -24849,13 +24757,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185734832"/>
+        <c:crossAx val="1423898464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="0.2"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1185463360"/>
+        <c:axId val="1423904176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
@@ -24950,13 +24858,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1185467264"/>
+        <c:crossAx val="1423229904"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="1.9"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1185467264"/>
+        <c:axId val="1423229904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -24966,7 +24874,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1185463360"/>
+        <c:crossAx val="1423904176"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25378,8 +25286,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162036624"/>
-        <c:axId val="1162038944"/>
+        <c:axId val="1381911856"/>
+        <c:axId val="1381903088"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -25510,11 +25418,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="100"/>
-        <c:axId val="1162043584"/>
-        <c:axId val="1162041264"/>
+        <c:axId val="1381961680"/>
+        <c:axId val="1381945008"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162036624"/>
+        <c:axId val="1381911856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25523,7 +25431,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162038944"/>
+        <c:crossAx val="1381903088"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25531,7 +25439,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162038944"/>
+        <c:axId val="1381903088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="800.0"/>
@@ -25572,12 +25480,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162036624"/>
+        <c:crossAx val="1381911856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162041264"/>
+        <c:axId val="1381945008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="160000.0"/>
@@ -25617,12 +25525,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162043584"/>
+        <c:crossAx val="1381961680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162043584"/>
+        <c:axId val="1381961680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -25631,7 +25539,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162041264"/>
+        <c:crossAx val="1381945008"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -25772,7 +25680,7 @@
               <c:idx val="4"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-8.48755627201335E-17"/>
+                  <c:x val="-8.48755627201336E-17"/>
                   <c:y val="0.0277777777777778"/>
                 </c:manualLayout>
               </c:layout>
@@ -26136,8 +26044,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1162091776"/>
-        <c:axId val="1162094096"/>
+        <c:axId val="1185693744"/>
+        <c:axId val="1423577296"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -26227,11 +26135,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1162100880"/>
-        <c:axId val="1162097488"/>
+        <c:axId val="1423424224"/>
+        <c:axId val="1423669696"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1162091776"/>
+        <c:axId val="1185693744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26271,7 +26179,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162094096"/>
+        <c:crossAx val="1423577296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26279,7 +26187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1162094096"/>
+        <c:axId val="1423577296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-200.0"/>
@@ -26365,13 +26273,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162091776"/>
+        <c:crossAx val="1185693744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="200.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1162097488"/>
+        <c:axId val="1423669696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150000.0"/>
@@ -26459,13 +26367,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1162100880"/>
+        <c:crossAx val="1423424224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="50000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1162100880"/>
+        <c:axId val="1423424224"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -26475,7 +26383,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1162097488"/>
+        <c:crossAx val="1423669696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -26920,8 +26828,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="1187331632"/>
-        <c:axId val="1187333952"/>
+        <c:axId val="1423454256"/>
+        <c:axId val="1423463552"/>
       </c:barChart>
       <c:barChart>
         <c:barDir val="col"/>
@@ -27010,11 +26918,11 @@
         </c:dLbls>
         <c:gapWidth val="0"/>
         <c:overlap val="-100"/>
-        <c:axId val="1187338592"/>
-        <c:axId val="1187336272"/>
+        <c:axId val="1423461600"/>
+        <c:axId val="1423662384"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="1187331632"/>
+        <c:axId val="1423454256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27057,7 +26965,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187333952"/>
+        <c:crossAx val="1423463552"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -27065,7 +26973,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1187333952"/>
+        <c:axId val="1423463552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-100.0"/>
@@ -27104,12 +27012,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187331632"/>
+        <c:crossAx val="1423454256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1187336272"/>
+        <c:axId val="1423662384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="-30000.0"/>
@@ -27149,13 +27057,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1187338592"/>
+        <c:crossAx val="1423461600"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
         <c:majorUnit val="30000.0"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1187338592"/>
+        <c:axId val="1423461600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -27165,7 +27073,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1187336272"/>
+        <c:crossAx val="1423662384"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -50665,8 +50573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:O54"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -51965,7 +51873,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E26" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="E26" workbookViewId="0">
       <selection activeCell="H41" sqref="H41"/>
     </sheetView>
   </sheetViews>
